--- a/(01)资料及文档/(02)我的文档/(01)资料整理/心得.xlsx
+++ b/(01)资料及文档/(02)我的文档/(01)资料整理/心得.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>退出SI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,10 @@
   </si>
   <si>
     <t>光标在单词的最左边，则复制整个单词；在中间时，复制该单词的右边的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -881,82 +885,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="7:7">
+    <row r="17" spans="3:7">
       <c r="G17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="3:7">
       <c r="G18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
+    <row r="19" spans="3:7">
       <c r="G19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="7:7">
+    <row r="20" spans="3:7">
       <c r="G20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="7:7">
+    <row r="21" spans="3:7">
       <c r="G21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="7:7">
+    <row r="22" spans="3:7">
       <c r="G22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="7:7">
+    <row r="23" spans="3:7">
       <c r="G23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="7:7">
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
       <c r="G24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="7:7">
+    <row r="25" spans="3:7">
       <c r="G25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="7:7">
+    <row r="26" spans="3:7">
       <c r="G26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="7:7">
+    <row r="27" spans="3:7">
       <c r="G27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="7:7">
+    <row r="28" spans="3:7">
       <c r="G28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="7:7">
+    <row r="29" spans="3:7">
       <c r="G29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="7:7">
+    <row r="30" spans="3:7">
       <c r="G30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="7:7">
+    <row r="31" spans="3:7">
       <c r="G31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="7:7">
+    <row r="32" spans="3:7">
       <c r="G32" t="s">
         <v>1</v>
       </c>
